--- a/Effort/EffortGiulioAbbo.xlsx
+++ b/Effort/EffortGiulioAbbo.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Desktop/IS2proj/AbboAccordiBonetti/Effort/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulio Antonio Abbo\Google Drive\Poli\SE project\Effort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FAC0E1-E657-AD48-A286-E25AD56F8C02}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E649A0-36D3-4E67-A500-69C5119EEAB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{0B28E5B0-B43E-E940-AC9B-200C96DB78B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{0B28E5B0-B43E-E940-AC9B-200C96DB78B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Giulio Abbo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Purpose, scope, definitions</t>
   </si>
@@ -64,6 +61,15 @@
   </si>
   <si>
     <t>Hours</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>(+1)</t>
+  </si>
+  <si>
+    <t>Giulio A. Abbo</t>
   </si>
 </sst>
 </file>
@@ -107,16 +113,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -132,7 +141,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -428,89 +437,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2283A0BD-A3F0-6040-B65F-FBDAEAD5CFA1}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B3:B11)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -518,5 +551,6 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Effort/EffortGiulioAbbo.xlsx
+++ b/Effort/EffortGiulioAbbo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulio Antonio Abbo\Google Drive\Poli\SE project\Effort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E649A0-36D3-4E67-A500-69C5119EEAB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DEC735-8B68-4503-84EA-CAAB283B90B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{0B28E5B0-B43E-E940-AC9B-200C96DB78B3}"/>
+    <workbookView xWindow="5172" yWindow="3216" windowWidth="23040" windowHeight="12660" xr2:uid="{0B28E5B0-B43E-E940-AC9B-200C96DB78B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Purpose, scope, definitions</t>
   </si>
@@ -60,16 +60,28 @@
     <t>Description of the task</t>
   </si>
   <si>
-    <t>Hours</t>
-  </si>
-  <si>
     <t>SUM</t>
   </si>
   <si>
-    <t>(+1)</t>
-  </si>
-  <si>
     <t>Giulio A. Abbo</t>
+  </si>
+  <si>
+    <t>TOT</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Team</t>
   </si>
 </sst>
 </file>
@@ -117,11 +129,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,113 +449,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2283A0BD-A3F0-6040-B65F-FBDAEAD5CFA1}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>1.5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G10" si="0">SUM(B3:F3)</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2.5</v>
+      </c>
+      <c r="E4">
+        <v>2.5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.25</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.75</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1.5</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
+        <v>1.5</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
         <f>SUM(B3:B11)</f>
-        <v>9</v>
+        <v>16.75</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" ref="C12:F12" si="1">SUM(C3:C11)</f>
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>5.75</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="G12" s="1">
+        <f>SUM(G3:G11)</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Effort/EffortGiulioAbbo.xlsx
+++ b/Effort/EffortGiulioAbbo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulio Antonio Abbo\Google Drive\Poli\SE project\Effort\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulio Antonio Abbo\Google Drive\Poli\software engeneering\backups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DEC735-8B68-4503-84EA-CAAB283B90B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A08A410-4C97-4761-A48D-F0D292BAFF4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5172" yWindow="3216" windowWidth="23040" windowHeight="12660" xr2:uid="{0B28E5B0-B43E-E940-AC9B-200C96DB78B3}"/>
+    <workbookView xWindow="2664" yWindow="4056" windowWidth="23040" windowHeight="12660" xr2:uid="{0B28E5B0-B43E-E940-AC9B-200C96DB78B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Purpose, scope, definitions</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Team</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -449,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2283A0BD-A3F0-6040-B65F-FBDAEAD5CFA1}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -461,10 +464,10 @@
     <col min="2" max="2" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1"/>
+    <col min="8" max="8" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -472,7 +475,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -492,10 +495,13 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -514,12 +520,15 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G10" si="0">SUM(B3:F3)</f>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f>SUM(B3:G3)</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -538,84 +547,96 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H10" si="0">SUM(B4:G4)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>3.5</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2.25</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.75</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1.5</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>3.5</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
-        <v>0.5</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>2.25</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.75</v>
-      </c>
-      <c r="E6">
-        <v>0.5</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>0.5</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1.5</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -634,12 +655,15 @@
       <c r="F8">
         <v>0.5</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -658,12 +682,15 @@
       <c r="F9">
         <v>0.5</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -682,12 +709,15 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -711,9 +741,9 @@
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="G12" s="1">
-        <f>SUM(G3:G11)</f>
-        <v>40</v>
+      <c r="H12" s="1">
+        <f>SUM(H3:H11)</f>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
